--- a/BD/Normalizacion.xlsx
+++ b/BD/Normalizacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\kk\1skul\9no\BDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="99">
   <si>
     <t>Usuarios</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Existencias</t>
   </si>
   <si>
-    <t>Valoración</t>
-  </si>
-  <si>
     <t>Comentarios</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Precio Producto</t>
   </si>
   <si>
-    <t>Calificacion Producto</t>
-  </si>
-  <si>
     <t>Existencias Producto</t>
   </si>
   <si>
@@ -270,13 +264,70 @@
   </si>
   <si>
     <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Remitente</t>
+  </si>
+  <si>
+    <t>Destinatario</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Mensajes</t>
+  </si>
+  <si>
+    <t>ID Mensajes</t>
+  </si>
+  <si>
+    <t>FK Usuario Rem</t>
+  </si>
+  <si>
+    <t>FK Usuario Des</t>
+  </si>
+  <si>
+    <t>Valoraciones</t>
+  </si>
+  <si>
+    <t>ID Valoracion</t>
+  </si>
+  <si>
+    <t>Valoracion</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>PK Mensajes</t>
+  </si>
+  <si>
+    <t>PK Valoracion</t>
+  </si>
+  <si>
+    <t>Puntuacion</t>
+  </si>
+  <si>
+    <t>ID Valoración</t>
+  </si>
+  <si>
+    <t>FK Valoración</t>
+  </si>
+  <si>
+    <t>ID Dueño</t>
+  </si>
+  <si>
+    <t>Cantidad Vendida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +335,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +427,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF04F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -471,11 +540,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -504,6 +625,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,6 +645,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF04F2F2"/>
       <color rgb="FF993366"/>
       <color rgb="FFCC6600"/>
       <color rgb="FF00FFCC"/>
@@ -796,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K71"/>
+  <dimension ref="C3:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,13 +944,14 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -830,13 +965,19 @@
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
@@ -850,13 +991,19 @@
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -866,17 +1013,23 @@
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
+      <c r="F6" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
@@ -887,16 +1040,22 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,36 +1066,48 @@
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,16 +1116,18 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,16 +1136,18 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
@@ -981,7 +1156,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>19</v>
@@ -989,85 +1164,106 @@
       <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
+      <c r="F17" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1081,33 +1277,45 @@
         <v>24</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="G23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1117,17 +1325,23 @@
       <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>16</v>
+      <c r="F24" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1138,16 +1352,22 @@
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1155,39 +1375,51 @@
         <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
+      <c r="D27" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1196,16 +1428,18 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1213,17 +1447,19 @@
         <v>18</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="6" t="s">
-        <v>56</v>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1231,94 +1467,116 @@
         <v>19</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>29</v>
+      <c r="F30" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>34</v>
+      <c r="F35" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="39" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="39" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
         <v>0</v>
       </c>
@@ -1332,45 +1590,57 @@
         <v>24</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="22" t="s">
+      <c r="M40" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="F41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="G41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
@@ -1380,23 +1650,29 @@
       <c r="E42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>16</v>
+      <c r="F42" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M42" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1407,68 +1683,86 @@
         <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="H44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1476,23 +1770,25 @@
         <v>17</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="6" t="s">
-        <v>56</v>
+      <c r="F46" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="34"/>
+      <c r="L46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K46" s="15" t="s">
+      <c r="M46" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1500,126 +1796,143 @@
         <v>18</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="18" t="s">
-        <v>63</v>
+      <c r="F47" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="1"/>
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>31</v>
+      <c r="F48" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J48" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="34"/>
+      <c r="L48" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="24" t="s">
+      <c r="H49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="34"/>
+      <c r="L49" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M49" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K49" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="14" t="s">
+      <c r="H50" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="34"/>
+      <c r="L50" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="M50" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>34</v>
+      <c r="F51" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="34"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F53" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-    </row>
-    <row r="56" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G55" s="37"/>
+    </row>
+    <row r="56" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="3" t="s">
         <v>0</v>
       </c>
@@ -1633,45 +1946,59 @@
         <v>24</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J57" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L57" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K57" s="22" t="s">
+      <c r="M57" s="22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="O57" s="31"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="F58" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="G58" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="H58" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I58" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O58" s="35"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
@@ -1681,23 +2008,30 @@
       <c r="E59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>16</v>
+      <c r="F59" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K59" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M59" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O59" s="31"/>
+    </row>
+    <row r="60" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
@@ -1708,226 +2042,272 @@
         <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" s="31"/>
+    </row>
+    <row r="61" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" s="22" t="s">
+      <c r="H61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J61" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M61" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K61" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="O61" s="31"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C62" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J62" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M62" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="K62" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="O62" s="31"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="34"/>
+      <c r="L63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K63" s="15" t="s">
+      <c r="M63" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="1"/>
+      <c r="J64" s="34"/>
+    </row>
+    <row r="65" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J65" s="23" t="s">
+      <c r="I65" s="1"/>
+      <c r="J65" s="34"/>
+      <c r="L65" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K65" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="18" t="s">
-        <v>63</v>
+      <c r="F66" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J66" s="24" t="s">
+      <c r="H66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="34"/>
+      <c r="L66" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M66" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K66" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J67" s="14" t="s">
+      <c r="I67" s="1"/>
+      <c r="J67" s="34"/>
+      <c r="L67" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K67" s="25" t="s">
+      <c r="M67" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" s="1"/>
-      <c r="H68" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H68" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="34"/>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C69" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" s="1"/>
-      <c r="H69" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H69" s="9"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="34"/>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C70" s="27"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>34</v>
+      <c r="F70" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="34"/>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="34"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
